--- a/Revised/table1and3.xlsx
+++ b/Revised/table1and3.xlsx
@@ -1626,10 +1626,10 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:W43"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
